--- a/simulation_data/iterative_algorithm/i_error_level_11_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_11_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.27917106781159</v>
+        <v>88.18472651938634</v>
       </c>
       <c r="D2" t="n">
-        <v>15.92083613622703</v>
+        <v>12.46153203712738</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.12639253155925</v>
+        <v>87.25175837594277</v>
       </c>
       <c r="D3" t="n">
-        <v>14.17146239397317</v>
+        <v>12.32760793903419</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.65435914825908</v>
+        <v>87.60527485815541</v>
       </c>
       <c r="D4" t="n">
-        <v>15.72925056767719</v>
+        <v>14.02580232764941</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.4903939914041</v>
+        <v>86.37410195563606</v>
       </c>
       <c r="D5" t="n">
-        <v>14.35698613634468</v>
+        <v>15.45451597054787</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.5909648626894</v>
+        <v>84.26286593263806</v>
       </c>
       <c r="D6" t="n">
-        <v>14.64084137101267</v>
+        <v>13.49534768292106</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.42755572673009</v>
+        <v>84.11246221154704</v>
       </c>
       <c r="D7" t="n">
-        <v>13.87427275649876</v>
+        <v>13.96680063759981</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.70838014907032</v>
+        <v>81.84082197977884</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1708439025903</v>
+        <v>11.89304276872645</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.59863745182793</v>
+        <v>82.88289950542678</v>
       </c>
       <c r="D9" t="n">
-        <v>13.67885721070894</v>
+        <v>12.51880154456081</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.40878599944018</v>
+        <v>82.47935268527822</v>
       </c>
       <c r="D10" t="n">
-        <v>14.75087746547143</v>
+        <v>15.21385188592225</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.67764350047628</v>
+        <v>78.94323449326403</v>
       </c>
       <c r="D11" t="n">
-        <v>15.03794291107701</v>
+        <v>13.17210484706872</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>77.69337652298505</v>
+        <v>79.28470273283578</v>
       </c>
       <c r="D12" t="n">
-        <v>13.85171275566121</v>
+        <v>12.20319962905022</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.05861783152861</v>
+        <v>79.74701164459327</v>
       </c>
       <c r="D13" t="n">
-        <v>13.93240256957714</v>
+        <v>11.7057097849885</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.11445824036555</v>
+        <v>79.94943212950106</v>
       </c>
       <c r="D14" t="n">
-        <v>14.99828589560542</v>
+        <v>12.49533800328037</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.33323542525609</v>
+        <v>75.46928434304348</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0966134050861</v>
+        <v>13.66131936905873</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.16651989674332</v>
+        <v>77.17427863578993</v>
       </c>
       <c r="D16" t="n">
-        <v>12.94066444535721</v>
+        <v>13.74157583778947</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.24165177735205</v>
+        <v>73.43808536015241</v>
       </c>
       <c r="D17" t="n">
-        <v>14.74555883528877</v>
+        <v>14.30260310512462</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.41512702351717</v>
+        <v>74.34162419887078</v>
       </c>
       <c r="D18" t="n">
-        <v>13.99392934483248</v>
+        <v>13.06144838004592</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>70.58668447141042</v>
+        <v>73.3109455890136</v>
       </c>
       <c r="D19" t="n">
-        <v>14.54065296916824</v>
+        <v>14.36916015077599</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.92004611521276</v>
+        <v>71.79952401414337</v>
       </c>
       <c r="D20" t="n">
-        <v>14.88337055614085</v>
+        <v>14.4177170215144</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.63166435121241</v>
+        <v>70.01919954526893</v>
       </c>
       <c r="D21" t="n">
-        <v>15.28622550542809</v>
+        <v>15.1548521754742</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.66566912132227</v>
+        <v>69.79231991788744</v>
       </c>
       <c r="D22" t="n">
-        <v>12.56976246285019</v>
+        <v>15.71701730041143</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.46294801246265</v>
+        <v>69.74459458990943</v>
       </c>
       <c r="D23" t="n">
-        <v>14.04731273760618</v>
+        <v>15.21887455269749</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.53159227833292</v>
+        <v>66.33096273593647</v>
       </c>
       <c r="D24" t="n">
-        <v>14.61173367096828</v>
+        <v>14.08907693737044</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.53739015414094</v>
+        <v>64.98251177409216</v>
       </c>
       <c r="D25" t="n">
-        <v>11.98203472755646</v>
+        <v>14.49480851117861</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.56602816445013</v>
+        <v>64.89955001938559</v>
       </c>
       <c r="D26" t="n">
-        <v>14.12547357467905</v>
+        <v>14.5576058283489</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>68.09714955060402</v>
+        <v>63.47862141337308</v>
       </c>
       <c r="D27" t="n">
-        <v>14.48256466200057</v>
+        <v>12.99677432261677</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.07956759587043</v>
+        <v>65.75958525504132</v>
       </c>
       <c r="D28" t="n">
-        <v>15.55266544890698</v>
+        <v>13.33799917035611</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.010237944002</v>
+        <v>61.06680858501844</v>
       </c>
       <c r="D29" t="n">
-        <v>12.2626403806766</v>
+        <v>13.63468703034752</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.04836874342852</v>
+        <v>62.80157979409883</v>
       </c>
       <c r="D30" t="n">
-        <v>14.49643038039375</v>
+        <v>13.89369736240566</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>58.63629762347959</v>
+        <v>60.07371684587611</v>
       </c>
       <c r="D31" t="n">
-        <v>13.70949129189239</v>
+        <v>13.0275666994907</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.44929720052017</v>
+        <v>58.10083021209296</v>
       </c>
       <c r="D32" t="n">
-        <v>13.59516152564422</v>
+        <v>14.54386289170147</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.78400752128631</v>
+        <v>57.24739721175249</v>
       </c>
       <c r="D33" t="n">
-        <v>13.95720362913759</v>
+        <v>14.48776323933991</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.90962352704891</v>
+        <v>57.77960457979643</v>
       </c>
       <c r="D34" t="n">
-        <v>13.45193209223625</v>
+        <v>13.83136363748893</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.50346394188347</v>
+        <v>55.47033801641908</v>
       </c>
       <c r="D35" t="n">
-        <v>12.71583472857436</v>
+        <v>16.01390838950693</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.27894255491395</v>
+        <v>57.50720593242988</v>
       </c>
       <c r="D36" t="n">
-        <v>14.25590113287645</v>
+        <v>14.23661100422671</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.37647358540978</v>
+        <v>54.9581781815656</v>
       </c>
       <c r="D37" t="n">
-        <v>16.62966958963241</v>
+        <v>14.49153706631689</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.48761095779512</v>
+        <v>52.32566165688478</v>
       </c>
       <c r="D38" t="n">
-        <v>13.24798241351567</v>
+        <v>16.72991079294438</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.88729155531961</v>
+        <v>52.61818901179247</v>
       </c>
       <c r="D39" t="n">
-        <v>13.90838740733238</v>
+        <v>15.44556982717891</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.20432504668771</v>
+        <v>51.67129362910885</v>
       </c>
       <c r="D40" t="n">
-        <v>12.72690996543886</v>
+        <v>12.75440233697937</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.19517240095103</v>
+        <v>52.77930398773956</v>
       </c>
       <c r="D41" t="n">
-        <v>15.14593568450775</v>
+        <v>13.09596617117307</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>53.01307942664996</v>
+        <v>52.44006709449251</v>
       </c>
       <c r="D42" t="n">
-        <v>14.44038162887149</v>
+        <v>14.97352033907386</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.65684080239145</v>
+        <v>50.07621542818362</v>
       </c>
       <c r="D43" t="n">
-        <v>14.5189962082004</v>
+        <v>15.04996994993638</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.73534778298839</v>
+        <v>46.67444616377919</v>
       </c>
       <c r="D44" t="n">
-        <v>12.87102590499215</v>
+        <v>14.68469321043266</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.04420738600818</v>
+        <v>46.85099944135622</v>
       </c>
       <c r="D45" t="n">
-        <v>13.13433146832283</v>
+        <v>14.38940516563718</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.0872699755289</v>
+        <v>45.330478765819</v>
       </c>
       <c r="D46" t="n">
-        <v>16.51858722135448</v>
+        <v>14.69157793432787</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.43061515722937</v>
+        <v>42.78272343270032</v>
       </c>
       <c r="D47" t="n">
-        <v>15.02596103940187</v>
+        <v>12.94617330772439</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.50134645294963</v>
+        <v>44.47017761579952</v>
       </c>
       <c r="D48" t="n">
-        <v>15.09260177426403</v>
+        <v>14.13090192783018</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.12709169386903</v>
+        <v>43.40703146492692</v>
       </c>
       <c r="D49" t="n">
-        <v>13.60048862014611</v>
+        <v>16.50084636052079</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.9901644778193</v>
+        <v>42.15894950065827</v>
       </c>
       <c r="D50" t="n">
-        <v>14.35250659412165</v>
+        <v>15.68650252362204</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.6180877053013</v>
+        <v>41.80156932934735</v>
       </c>
       <c r="D51" t="n">
-        <v>14.5464786922737</v>
+        <v>13.32947237306769</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.59098139866428</v>
+        <v>39.54041483249274</v>
       </c>
       <c r="D52" t="n">
-        <v>14.16816728224631</v>
+        <v>14.31975988020675</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.44404068068658</v>
+        <v>39.97439083201586</v>
       </c>
       <c r="D53" t="n">
-        <v>13.19524555261754</v>
+        <v>15.38829067614306</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.47465034995703</v>
+        <v>36.98035808185539</v>
       </c>
       <c r="D54" t="n">
-        <v>12.05405943674016</v>
+        <v>15.79603866814571</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.36050295366339</v>
+        <v>38.23295197822772</v>
       </c>
       <c r="D55" t="n">
-        <v>14.28579952301415</v>
+        <v>13.30023046037557</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.88569150090451</v>
+        <v>36.06350294497744</v>
       </c>
       <c r="D56" t="n">
-        <v>14.18792801566461</v>
+        <v>13.7003221227766</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.64930733593273</v>
+        <v>33.67093240990988</v>
       </c>
       <c r="D57" t="n">
-        <v>13.10626066639457</v>
+        <v>15.18005372380231</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>30.00618127650039</v>
+        <v>33.33791845592862</v>
       </c>
       <c r="D58" t="n">
-        <v>14.3583308965158</v>
+        <v>12.86219707675386</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.89402873605849</v>
+        <v>30.36550472059678</v>
       </c>
       <c r="D59" t="n">
-        <v>13.7420653819241</v>
+        <v>14.09831699600903</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.2948736173479</v>
+        <v>33.98586738342042</v>
       </c>
       <c r="D60" t="n">
-        <v>15.26615743731565</v>
+        <v>15.28808022314033</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.01857934755292</v>
+        <v>28.25125594584427</v>
       </c>
       <c r="D61" t="n">
-        <v>13.52645030590921</v>
+        <v>14.62101247676126</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>34.64935139695857</v>
+        <v>31.18165315233749</v>
       </c>
       <c r="D62" t="n">
-        <v>15.57734054172773</v>
+        <v>14.18477017251854</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.98828490815704</v>
+        <v>29.16841375744509</v>
       </c>
       <c r="D63" t="n">
-        <v>14.05204954013703</v>
+        <v>14.0321105054802</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.22572412451442</v>
+        <v>28.01311327553211</v>
       </c>
       <c r="D64" t="n">
-        <v>15.25672058619574</v>
+        <v>14.40452219501551</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.37289054759964</v>
+        <v>24.96006497348867</v>
       </c>
       <c r="D65" t="n">
-        <v>14.77730674339962</v>
+        <v>13.89418490274951</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.71773322369054</v>
+        <v>24.80773085355364</v>
       </c>
       <c r="D66" t="n">
-        <v>13.14854351336067</v>
+        <v>13.60179807366887</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.17112705246059</v>
+        <v>22.96910117152311</v>
       </c>
       <c r="D67" t="n">
-        <v>15.68712337687337</v>
+        <v>14.21126122401064</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.23821883158431</v>
+        <v>23.54115727094464</v>
       </c>
       <c r="D68" t="n">
-        <v>13.63080503467477</v>
+        <v>13.69809836574005</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.08740633147498</v>
+        <v>21.5714192546934</v>
       </c>
       <c r="D69" t="n">
-        <v>14.44405574795705</v>
+        <v>14.86965259481688</v>
       </c>
     </row>
   </sheetData>
